--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.70143120773697</v>
+        <v>9.327880333333333</v>
       </c>
       <c r="H2">
-        <v>8.70143120773697</v>
+        <v>27.983641</v>
       </c>
       <c r="I2">
-        <v>0.2367961261437533</v>
+        <v>0.2334346564853683</v>
       </c>
       <c r="J2">
-        <v>0.2367961261437533</v>
+        <v>0.2334346564853683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.88351294625641</v>
+        <v>2.891565</v>
       </c>
       <c r="N2">
-        <v>1.88351294625641</v>
+        <v>8.674695</v>
       </c>
       <c r="O2">
-        <v>0.01727089553926132</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="P2">
-        <v>0.01727089553926132</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="Q2">
-        <v>16.38925833073213</v>
+        <v>26.972172296055</v>
       </c>
       <c r="R2">
-        <v>16.38925833073213</v>
+        <v>242.749550664495</v>
       </c>
       <c r="S2">
-        <v>0.004089681158730511</v>
+        <v>0.005988473652830137</v>
       </c>
       <c r="T2">
-        <v>0.004089681158730511</v>
+        <v>0.005988473652830138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.70143120773697</v>
+        <v>9.327880333333333</v>
       </c>
       <c r="H3">
-        <v>8.70143120773697</v>
+        <v>27.983641</v>
       </c>
       <c r="I3">
-        <v>0.2367961261437533</v>
+        <v>0.2334346564853683</v>
       </c>
       <c r="J3">
-        <v>0.2367961261437533</v>
+        <v>0.2334346564853683</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.893838915054</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N3">
-        <v>106.893838915054</v>
+        <v>328.283929</v>
       </c>
       <c r="O3">
-        <v>0.9801643940711203</v>
+        <v>0.9708367737425379</v>
       </c>
       <c r="P3">
-        <v>0.9801643940711203</v>
+        <v>0.970836773742538</v>
       </c>
       <c r="Q3">
-        <v>930.1293858502595</v>
+        <v>1020.731068356165</v>
       </c>
       <c r="R3">
-        <v>930.1293858502595</v>
+        <v>9186.579615205488</v>
       </c>
       <c r="S3">
-        <v>0.2320991315000805</v>
+        <v>0.2266269487819525</v>
       </c>
       <c r="T3">
-        <v>0.2320991315000805</v>
+        <v>0.2266269487819526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.70143120773697</v>
+        <v>9.327880333333333</v>
       </c>
       <c r="H4">
-        <v>8.70143120773697</v>
+        <v>27.983641</v>
       </c>
       <c r="I4">
-        <v>0.2367961261437533</v>
+        <v>0.2334346564853683</v>
       </c>
       <c r="J4">
-        <v>0.2367961261437533</v>
+        <v>0.2334346564853683</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.279699753337226</v>
+        <v>0.06646400000000001</v>
       </c>
       <c r="N4">
-        <v>0.279699753337226</v>
+        <v>0.199392</v>
       </c>
       <c r="O4">
-        <v>0.0025647103896183</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="P4">
-        <v>0.0025647103896183</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="Q4">
-        <v>2.433788162484871</v>
+        <v>0.6199682384746668</v>
       </c>
       <c r="R4">
-        <v>2.433788162484871</v>
+        <v>5.579714146272</v>
       </c>
       <c r="S4">
-        <v>0.0006073134849422496</v>
+        <v>0.0001376479217523045</v>
       </c>
       <c r="T4">
-        <v>0.0006073134849422496</v>
+        <v>0.0001376479217523045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.79639339950169</v>
+        <v>9.327880333333333</v>
       </c>
       <c r="H5">
-        <v>6.79639339950169</v>
+        <v>27.983641</v>
       </c>
       <c r="I5">
-        <v>0.1849534393054783</v>
+        <v>0.2334346564853683</v>
       </c>
       <c r="J5">
-        <v>0.1849534393054783</v>
+        <v>0.2334346564853683</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.88351294625641</v>
+        <v>0.3291073333333334</v>
       </c>
       <c r="N5">
-        <v>1.88351294625641</v>
+        <v>0.987322</v>
       </c>
       <c r="O5">
-        <v>0.01727089553926132</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="P5">
-        <v>0.01727089553926132</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="Q5">
-        <v>12.80109495581305</v>
+        <v>3.069873822155778</v>
       </c>
       <c r="R5">
-        <v>12.80109495581305</v>
+        <v>27.628864399402</v>
       </c>
       <c r="S5">
-        <v>0.003194311529872025</v>
+        <v>0.0006815861288332971</v>
       </c>
       <c r="T5">
-        <v>0.003194311529872025</v>
+        <v>0.0006815861288332971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.79639339950169</v>
+        <v>7.038387</v>
       </c>
       <c r="H6">
-        <v>6.79639339950169</v>
+        <v>21.115161</v>
       </c>
       <c r="I6">
-        <v>0.1849534393054783</v>
+        <v>0.1761389933021313</v>
       </c>
       <c r="J6">
-        <v>0.1849534393054783</v>
+        <v>0.1761389933021313</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.893838915054</v>
+        <v>2.891565</v>
       </c>
       <c r="N6">
-        <v>106.893838915054</v>
+        <v>8.674695</v>
       </c>
       <c r="O6">
-        <v>0.9801643940711203</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="P6">
-        <v>0.9801643940711203</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="Q6">
-        <v>726.4925812496699</v>
+        <v>20.351953505655</v>
       </c>
       <c r="R6">
-        <v>726.4925812496699</v>
+        <v>183.167581550895</v>
       </c>
       <c r="S6">
-        <v>0.1812847757682239</v>
+        <v>0.004518625196905809</v>
       </c>
       <c r="T6">
-        <v>0.1812847757682239</v>
+        <v>0.004518625196905809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.79639339950169</v>
+        <v>7.038387</v>
       </c>
       <c r="H7">
-        <v>6.79639339950169</v>
+        <v>21.115161</v>
       </c>
       <c r="I7">
-        <v>0.1849534393054783</v>
+        <v>0.1761389933021313</v>
       </c>
       <c r="J7">
-        <v>0.1849534393054783</v>
+        <v>0.1761389933021313</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.279699753337226</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N7">
-        <v>0.279699753337226</v>
+        <v>328.283929</v>
       </c>
       <c r="O7">
-        <v>0.0025647103896183</v>
+        <v>0.9708367737425379</v>
       </c>
       <c r="P7">
-        <v>0.0025647103896183</v>
+        <v>0.970836773742538</v>
       </c>
       <c r="Q7">
-        <v>1.900949557423374</v>
+        <v>770.196446060841</v>
       </c>
       <c r="R7">
-        <v>1.900949557423374</v>
+        <v>6931.768014547569</v>
       </c>
       <c r="S7">
-        <v>0.0004743520073823978</v>
+        <v>0.1710022119876996</v>
       </c>
       <c r="T7">
-        <v>0.0004743520073823978</v>
+        <v>0.1710022119876996</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.4147028777108</v>
+        <v>7.038387</v>
       </c>
       <c r="H8">
-        <v>5.4147028777108</v>
+        <v>21.115161</v>
       </c>
       <c r="I8">
-        <v>0.147352847485743</v>
+        <v>0.1761389933021313</v>
       </c>
       <c r="J8">
-        <v>0.147352847485743</v>
+        <v>0.1761389933021313</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.88351294625641</v>
+        <v>0.06646400000000001</v>
       </c>
       <c r="N8">
-        <v>1.88351294625641</v>
+        <v>0.199392</v>
       </c>
       <c r="O8">
-        <v>0.01727089553926132</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="P8">
-        <v>0.01727089553926132</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="Q8">
-        <v>10.19866297030013</v>
+        <v>0.4677993535680001</v>
       </c>
       <c r="R8">
-        <v>10.19866297030013</v>
+        <v>4.210194182112001</v>
       </c>
       <c r="S8">
-        <v>0.002544915636338974</v>
+        <v>0.0001038627542825936</v>
       </c>
       <c r="T8">
-        <v>0.002544915636338974</v>
+        <v>0.0001038627542825936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.4147028777108</v>
+        <v>7.038387</v>
       </c>
       <c r="H9">
-        <v>5.4147028777108</v>
+        <v>21.115161</v>
       </c>
       <c r="I9">
-        <v>0.147352847485743</v>
+        <v>0.1761389933021313</v>
       </c>
       <c r="J9">
-        <v>0.147352847485743</v>
+        <v>0.1761389933021313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.893838915054</v>
+        <v>0.3291073333333334</v>
       </c>
       <c r="N9">
-        <v>106.893838915054</v>
+        <v>0.987322</v>
       </c>
       <c r="O9">
-        <v>0.9801643940711203</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="P9">
-        <v>0.9801643940711203</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="Q9">
-        <v>578.7983771828976</v>
+        <v>2.316384776538</v>
       </c>
       <c r="R9">
-        <v>578.7983771828976</v>
+        <v>20.847462988842</v>
       </c>
       <c r="S9">
-        <v>0.1444300144705175</v>
+        <v>0.0005142933632432539</v>
       </c>
       <c r="T9">
-        <v>0.1444300144705175</v>
+        <v>0.0005142933632432539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.4147028777108</v>
+        <v>5.440503</v>
       </c>
       <c r="H10">
-        <v>5.4147028777108</v>
+        <v>16.321509</v>
       </c>
       <c r="I10">
-        <v>0.147352847485743</v>
+        <v>0.1361511837125786</v>
       </c>
       <c r="J10">
-        <v>0.147352847485743</v>
+        <v>0.1361511837125786</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.279699753337226</v>
+        <v>2.891565</v>
       </c>
       <c r="N10">
-        <v>0.279699753337226</v>
+        <v>8.674695</v>
       </c>
       <c r="O10">
-        <v>0.0025647103896183</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="P10">
-        <v>0.0025647103896183</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="Q10">
-        <v>1.514491059290079</v>
+        <v>15.731568057195</v>
       </c>
       <c r="R10">
-        <v>1.514491059290079</v>
+        <v>141.584112514755</v>
       </c>
       <c r="S10">
-        <v>0.000377917378886526</v>
+        <v>0.003492788040731725</v>
       </c>
       <c r="T10">
-        <v>0.000377917378886526</v>
+        <v>0.003492788040731725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.5401259875433</v>
+        <v>5.440503</v>
       </c>
       <c r="H11">
-        <v>2.5401259875433</v>
+        <v>16.321509</v>
       </c>
       <c r="I11">
-        <v>0.06912563915146581</v>
+        <v>0.1361511837125786</v>
       </c>
       <c r="J11">
-        <v>0.06912563915146581</v>
+        <v>0.1361511837125786</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.88351294625641</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N11">
-        <v>1.88351294625641</v>
+        <v>328.283929</v>
       </c>
       <c r="O11">
-        <v>0.01727089553926132</v>
+        <v>0.9708367737425379</v>
       </c>
       <c r="P11">
-        <v>0.01727089553926132</v>
+        <v>0.970836773742538</v>
       </c>
       <c r="Q11">
-        <v>4.784360182660154</v>
+        <v>595.343233525429</v>
       </c>
       <c r="R11">
-        <v>4.784360182660154</v>
+        <v>5358.08910172886</v>
       </c>
       <c r="S11">
-        <v>0.001193861692869639</v>
+        <v>0.1321805759367474</v>
       </c>
       <c r="T11">
-        <v>0.001193861692869639</v>
+        <v>0.1321805759367474</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.5401259875433</v>
+        <v>5.440503</v>
       </c>
       <c r="H12">
-        <v>2.5401259875433</v>
+        <v>16.321509</v>
       </c>
       <c r="I12">
-        <v>0.06912563915146581</v>
+        <v>0.1361511837125786</v>
       </c>
       <c r="J12">
-        <v>0.06912563915146581</v>
+        <v>0.1361511837125786</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>106.893838915054</v>
+        <v>0.06646400000000001</v>
       </c>
       <c r="N12">
-        <v>106.893838915054</v>
+        <v>0.199392</v>
       </c>
       <c r="O12">
-        <v>0.9801643940711203</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="P12">
-        <v>0.9801643940711203</v>
+        <v>0.00058966360790105</v>
       </c>
       <c r="Q12">
-        <v>271.523818136396</v>
+        <v>0.361597591392</v>
       </c>
       <c r="R12">
-        <v>271.523818136396</v>
+        <v>3.254378322528</v>
       </c>
       <c r="S12">
-        <v>0.0677544902136754</v>
+        <v>8.028339820795775E-05</v>
       </c>
       <c r="T12">
-        <v>0.0677544902136754</v>
+        <v>8.028339820795775E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.5401259875433</v>
+        <v>5.440503</v>
       </c>
       <c r="H13">
-        <v>2.5401259875433</v>
+        <v>16.321509</v>
       </c>
       <c r="I13">
-        <v>0.06912563915146581</v>
+        <v>0.1361511837125786</v>
       </c>
       <c r="J13">
-        <v>0.06912563915146581</v>
+        <v>0.1361511837125786</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.279699753337226</v>
+        <v>0.3291073333333334</v>
       </c>
       <c r="N13">
-        <v>0.279699753337226</v>
+        <v>0.987322</v>
       </c>
       <c r="O13">
-        <v>0.0025647103896183</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="P13">
-        <v>0.0025647103896183</v>
+        <v>0.002919815502528088</v>
       </c>
       <c r="Q13">
-        <v>0.7104726121613387</v>
+        <v>1.790509434322</v>
       </c>
       <c r="R13">
-        <v>0.7104726121613387</v>
+        <v>16.114584908898</v>
       </c>
       <c r="S13">
-        <v>0.0001772872449207699</v>
+        <v>0.0003975363368915367</v>
       </c>
       <c r="T13">
-        <v>0.0001772872449207699</v>
+        <v>0.0003975363368915367</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.2938564871108</v>
+        <v>4.327482</v>
       </c>
       <c r="H14">
-        <v>13.2938564871108</v>
+        <v>12.982446</v>
       </c>
       <c r="I14">
-        <v>0.3617719479135597</v>
+        <v>0.1082973020683707</v>
       </c>
       <c r="J14">
-        <v>0.3617719479135597</v>
+        <v>0.1082973020683707</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.88351294625641</v>
+        <v>2.891565</v>
       </c>
       <c r="N14">
-        <v>1.88351294625641</v>
+        <v>8.674695</v>
       </c>
       <c r="O14">
-        <v>0.01727089553926132</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="P14">
-        <v>0.01727089553926132</v>
+        <v>0.02565374714703297</v>
       </c>
       <c r="Q14">
-        <v>25.03915079914795</v>
+        <v>12.51319548933</v>
       </c>
       <c r="R14">
-        <v>25.03915079914795</v>
+        <v>112.61875940397</v>
       </c>
       <c r="S14">
-        <v>0.006248125521450178</v>
+        <v>0.002778231603967833</v>
       </c>
       <c r="T14">
-        <v>0.006248125521450178</v>
+        <v>0.002778231603967833</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.2938564871108</v>
+        <v>4.327482</v>
       </c>
       <c r="H15">
-        <v>13.2938564871108</v>
+        <v>12.982446</v>
       </c>
       <c r="I15">
-        <v>0.3617719479135597</v>
+        <v>0.1082973020683707</v>
       </c>
       <c r="J15">
-        <v>0.3617719479135597</v>
+        <v>0.1082973020683707</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>106.893838915054</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N15">
-        <v>106.893838915054</v>
+        <v>328.283929</v>
       </c>
       <c r="O15">
-        <v>0.9801643940711203</v>
+        <v>0.9708367737425379</v>
       </c>
       <c r="P15">
-        <v>0.9801643940711203</v>
+        <v>0.970836773742538</v>
       </c>
       <c r="Q15">
-        <v>1421.031353893067</v>
+        <v>473.547597878926</v>
       </c>
       <c r="R15">
-        <v>1421.031353893067</v>
+        <v>4261.928380910334</v>
       </c>
       <c r="S15">
-        <v>0.3545959821186231</v>
+        <v>0.1051390033450781</v>
       </c>
       <c r="T15">
-        <v>0.3545959821186231</v>
+        <v>0.1051390033450781</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.327482</v>
+      </c>
+      <c r="H16">
+        <v>12.982446</v>
+      </c>
+      <c r="I16">
+        <v>0.1082973020683707</v>
+      </c>
+      <c r="J16">
+        <v>0.1082973020683707</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06646400000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.199392</v>
+      </c>
+      <c r="O16">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="P16">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="Q16">
+        <v>0.287621763648</v>
+      </c>
+      <c r="R16">
+        <v>2.588595872832</v>
+      </c>
+      <c r="S16">
+        <v>6.385897786358531E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.385897786358531E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.327482</v>
+      </c>
+      <c r="H17">
+        <v>12.982446</v>
+      </c>
+      <c r="I17">
+        <v>0.1082973020683707</v>
+      </c>
+      <c r="J17">
+        <v>0.1082973020683707</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3291073333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.987322</v>
+      </c>
+      <c r="O17">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="P17">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="Q17">
+        <v>1.424206061068</v>
+      </c>
+      <c r="R17">
+        <v>12.817854549612</v>
+      </c>
+      <c r="S17">
+        <v>0.000316208141461196</v>
+      </c>
+      <c r="T17">
+        <v>0.000316208141461196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.2938564871108</v>
-      </c>
-      <c r="H16">
-        <v>13.2938564871108</v>
-      </c>
-      <c r="I16">
-        <v>0.3617719479135597</v>
-      </c>
-      <c r="J16">
-        <v>0.3617719479135597</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.279699753337226</v>
-      </c>
-      <c r="N16">
-        <v>0.279699753337226</v>
-      </c>
-      <c r="O16">
-        <v>0.0025647103896183</v>
-      </c>
-      <c r="P16">
-        <v>0.0025647103896183</v>
-      </c>
-      <c r="Q16">
-        <v>3.718288380345373</v>
-      </c>
-      <c r="R16">
-        <v>3.718288380345373</v>
-      </c>
-      <c r="S16">
-        <v>0.0009278402734863569</v>
-      </c>
-      <c r="T16">
-        <v>0.0009278402734863569</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>13.82502566666667</v>
+      </c>
+      <c r="H18">
+        <v>41.475077</v>
+      </c>
+      <c r="I18">
+        <v>0.3459778644315512</v>
+      </c>
+      <c r="J18">
+        <v>0.3459778644315512</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.891565</v>
+      </c>
+      <c r="N18">
+        <v>8.674695</v>
+      </c>
+      <c r="O18">
+        <v>0.02565374714703297</v>
+      </c>
+      <c r="P18">
+        <v>0.02565374714703297</v>
+      </c>
+      <c r="Q18">
+        <v>39.975960341835</v>
+      </c>
+      <c r="R18">
+        <v>359.783643076515</v>
+      </c>
+      <c r="S18">
+        <v>0.008875628652597467</v>
+      </c>
+      <c r="T18">
+        <v>0.008875628652597467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>13.82502566666667</v>
+      </c>
+      <c r="H19">
+        <v>41.475077</v>
+      </c>
+      <c r="I19">
+        <v>0.3459778644315512</v>
+      </c>
+      <c r="J19">
+        <v>0.3459778644315512</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>109.4279763333333</v>
+      </c>
+      <c r="N19">
+        <v>328.283929</v>
+      </c>
+      <c r="O19">
+        <v>0.9708367737425379</v>
+      </c>
+      <c r="P19">
+        <v>0.970836773742538</v>
+      </c>
+      <c r="Q19">
+        <v>1512.844581459726</v>
+      </c>
+      <c r="R19">
+        <v>13615.60123313753</v>
+      </c>
+      <c r="S19">
+        <v>0.3358880336910603</v>
+      </c>
+      <c r="T19">
+        <v>0.3358880336910604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>13.82502566666667</v>
+      </c>
+      <c r="H20">
+        <v>41.475077</v>
+      </c>
+      <c r="I20">
+        <v>0.3459778644315512</v>
+      </c>
+      <c r="J20">
+        <v>0.3459778644315512</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06646400000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.199392</v>
+      </c>
+      <c r="O20">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="P20">
+        <v>0.00058966360790105</v>
+      </c>
+      <c r="Q20">
+        <v>0.9188665059093335</v>
+      </c>
+      <c r="R20">
+        <v>8.269798553184</v>
+      </c>
+      <c r="S20">
+        <v>0.0002040105557946088</v>
+      </c>
+      <c r="T20">
+        <v>0.0002040105557946088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>13.82502566666667</v>
+      </c>
+      <c r="H21">
+        <v>41.475077</v>
+      </c>
+      <c r="I21">
+        <v>0.3459778644315512</v>
+      </c>
+      <c r="J21">
+        <v>0.3459778644315512</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3291073333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.987322</v>
+      </c>
+      <c r="O21">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="P21">
+        <v>0.002919815502528088</v>
+      </c>
+      <c r="Q21">
+        <v>4.549917330421556</v>
+      </c>
+      <c r="R21">
+        <v>40.949255973794</v>
+      </c>
+      <c r="S21">
+        <v>0.001010191532098804</v>
+      </c>
+      <c r="T21">
+        <v>0.001010191532098804</v>
       </c>
     </row>
   </sheetData>
